--- a/trunk/Doc/Danh sách chức năng.xlsx
+++ b/trunk/Doc/Danh sách chức năng.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Luận văn\SVN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Luận văn\SVN\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t>Tên chức năng</t>
   </si>
@@ -71,18 +71,6 @@
     <t>Lập nghị quyết Đảng ủy đề nghị kết nạp Đảng viên</t>
   </si>
   <si>
-    <t>Lập danh sách đề nghị khen thưởng Đảng viên và Chi bộ</t>
-  </si>
-  <si>
-    <t>Lập danh sách đề nghị kỷ luật Đảng viên</t>
-  </si>
-  <si>
-    <t>Lập bảng kê Đảng phí</t>
-  </si>
-  <si>
-    <t>Lập bảng kê truy thu Đảng phí</t>
-  </si>
-  <si>
     <t>Cập nhật chức vụ</t>
   </si>
   <si>
@@ -98,9 +86,6 @@
     <t>Lập danh sách cảm tình Đảng học bồi dưỡng kết nạp Đảng</t>
   </si>
   <si>
-    <t>Cập nhật hệ số lương</t>
-  </si>
-  <si>
     <t>Lập danh sách bồi dưỡng lí luận Đảng viên mới</t>
   </si>
   <si>
@@ -176,16 +161,9 @@
     <t>Chi bộ</t>
   </si>
   <si>
-    <t>hệ số lương đã được lưu khi thêm Đảng viên
-nhưng có thể cập nhật nhanh hệ số lương bằng chức năng này</t>
-  </si>
-  <si>
     <t>Chưa có mẫu của 3 giấy giới thiệu này</t>
   </si>
   <si>
-    <t>Tài khoản được tạo khi thêm Cập nhật danh mục Chi bộ</t>
-  </si>
-  <si>
     <t>Các thông báo được hiển thị ở trang hiển thị tin bài của của hệ thống.</t>
   </si>
   <si>
@@ -201,16 +179,31 @@
     <t>Lập nghị quyết Đảng ủy đề nghị công nhận Đảng chính thức</t>
   </si>
   <si>
-    <t>Cập nhật hệ số phụ cấp chức vụ</t>
-  </si>
-  <si>
-    <t>Cập nhật hệ số phụ cấp thâm niên</t>
-  </si>
-  <si>
-    <t>Cập nhật hệ số phụ cấp vượt khung</t>
-  </si>
-  <si>
     <t>Quản lý đánh giá, phân loại Đảng viên</t>
+  </si>
+  <si>
+    <t>Lập danh sách đề nghị khen thưởng Đảng viên của Chi bộ</t>
+  </si>
+  <si>
+    <t>Lập danh sách đề nghị khen thưởng của Đảng ủy</t>
+  </si>
+  <si>
+    <t>Lập danh sách đề nghị kỷ luật Đảng viên ?</t>
+  </si>
+  <si>
+    <t>Báo cáo cá nhân thu, nộp Đảng phí theo tháng</t>
+  </si>
+  <si>
+    <t>Cập nhật các hệ số</t>
+  </si>
+  <si>
+    <t>Báo cáo thu, nộp Đảng phí theo quí, năm</t>
+  </si>
+  <si>
+    <t>Báo cáo thu, nộp Đảng phí theo tháng, năm</t>
+  </si>
+  <si>
+    <t>Báo cáo thu, nộp Đảng phí theo năm</t>
   </si>
 </sst>
 </file>
@@ -234,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +249,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -325,10 +336,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -337,6 +348,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,9 +631,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -633,453 +647,457 @@
   <sheetData>
     <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>36</v>
+      <c r="A2" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="1"/>
+      <c r="C20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
+      <c r="A21" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="4"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
-      <c r="B23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
+      <c r="B23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="B24" s="4" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
+      <c r="B30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
+      <c r="B36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
+      <c r="B38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="8"/>
+      <c r="B40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>53</v>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="8"/>
+      <c r="B41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A40"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/Doc/Danh sách chức năng.xlsx
+++ b/trunk/Doc/Danh sách chức năng.xlsx
@@ -23,8 +23,90 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ChiTamPoPo</author>
+  </authors>
+  <commentList>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ChiTamPoPo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+thiếu mẫu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ChiTamPoPo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+có cần không</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B43" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ChiTamPoPo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+thiếu mẫu</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>Tên chức năng</t>
   </si>
@@ -89,9 +171,6 @@
     <t>Lập danh sách bồi dưỡng lí luận Đảng viên mới</t>
   </si>
   <si>
-    <t>Lập giấy giới thiệu chuyển sinh hoạt tạm thời, nội bộ, chính thức</t>
-  </si>
-  <si>
     <t>Lập danh sách Đảng viên chuyển ra nước ngoài</t>
   </si>
   <si>
@@ -161,15 +240,6 @@
     <t>Chi bộ</t>
   </si>
   <si>
-    <t>Chưa có mẫu của 3 giấy giới thiệu này</t>
-  </si>
-  <si>
-    <t>Các thông báo được hiển thị ở trang hiển thị tin bài của của hệ thống.</t>
-  </si>
-  <si>
-    <t>Bao gồm cập nhật các danh mục Chi bộ, Chức vụ, Tỉnh thành, Phường xã, Quận huyện, Trình độ chính trị, Học hàm, Học vị, Chuyên môn, Nghiệp vụ…</t>
-  </si>
-  <si>
     <t>Lập quyết định Đảng ủy</t>
   </si>
   <si>
@@ -204,13 +274,40 @@
   </si>
   <si>
     <t>Báo cáo thu, nộp Đảng phí theo năm</t>
+  </si>
+  <si>
+    <t>Lập quyết định chuyển nơi công tác</t>
+  </si>
+  <si>
+    <t>Lập danh sách đề nghị cấp thẻ Đảng bị mất</t>
+  </si>
+  <si>
+    <t>Lập danh sách đề nghị cấp thẻ Đảng bị hỏng</t>
+  </si>
+  <si>
+    <t>Lập danh sách đề nghị cấp huy hiệu Đảng bị mất</t>
+  </si>
+  <si>
+    <t>Lập danh sách đề nghị cấp huy hiệu Đảng bị hỏng</t>
+  </si>
+  <si>
+    <t>Báo cáo tạo nguồn kết nạp Đảng viên</t>
+  </si>
+  <si>
+    <t>Phiếu thẩm tra, chứng nhận lí lịch Đảng viên</t>
+  </si>
+  <si>
+    <t>Yêu cầu khác</t>
+  </si>
+  <si>
+    <t>Chuyển thông tin từ cảm tình Đảng sang Đảng viên 1 cách nhanh chóng khi cảm tình Đảng được kết nạp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,8 +323,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,24 +366,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,22 +423,26 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -348,9 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,11 +731,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -646,443 +747,507 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
+      <c r="B44" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="1" t="s">
+      <c r="C45" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="1" t="s">
+      <c r="C46" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>46</v>
+      <c r="C47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1093,13 +1258,14 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A5:A11"/>
-    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>